--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="-19560" windowWidth="23840" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="0" windowWidth="23840" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,87 +241,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -692,7 +612,7 @@
   <dimension ref="B1:C18"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -837,12 +757,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C18">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>(C4="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>(C17="-")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="0" windowWidth="23840" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="14360" yWindow="5280" windowWidth="23840" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Fit age distrib conditional household size</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Fit asymptomatic proportion to desired value</t>
   </si>
 </sst>
 </file>
@@ -183,8 +186,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,7 +225,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -230,6 +235,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -239,19 +245,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -609,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C18"/>
+  <dimension ref="B1:C19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -733,7 +730,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
@@ -741,7 +738,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>19</v>
@@ -749,25 +746,33 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C18">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="C4:C19">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>(C4="-")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(C17="-")</formula>
+  <conditionalFormatting sqref="C18:C19">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>(C18="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C19">
       <formula1>"ok,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="5280" windowWidth="23840" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="13200" yWindow="9520" windowWidth="23840" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="B1:C19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="9520" windowWidth="23840" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="11420" yWindow="2840" windowWidth="33280" windowHeight="19260" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Fit age distrib conditional household size</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Set cellular immunity</t>
   </si>
   <si>
-    <t>Set proba hospitalization</t>
-  </si>
-  <si>
-    <t>Set proba death</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coherence distribution social places </t>
   </si>
   <si>
@@ -81,14 +75,53 @@
     <t>-</t>
   </si>
   <si>
-    <t>Fit asymptomatic proportion to desired value</t>
+    <t>Set asymptomatic fraction</t>
+  </si>
+  <si>
+    <t>Set vax efficacy</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Fit proba hospitalization &amp; death</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Scen</t>
+  </si>
+  <si>
+    <t>FITS TO DATA</t>
+  </si>
+  <si>
+    <t>Age distribution</t>
+  </si>
+  <si>
+    <t>Frailty/chronic disease</t>
+  </si>
+  <si>
+    <t>hosp &amp; death</t>
+  </si>
+  <si>
+    <t>SP size dsitrib</t>
+  </si>
+  <si>
+    <t>Coarsing issue with small population</t>
+  </si>
+  <si>
+    <t>public transport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +172,19 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -186,7 +232,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,8 +254,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,8 +286,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -236,6 +300,14 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -246,9 +318,67 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -606,173 +736,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C19"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="6" max="7" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="4" customFormat="1" ht="28">
+    <row r="1" spans="2:10" s="4" customFormat="1" ht="28">
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="6"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="6"/>
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C19">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>(C4="-")</formula>
+  <conditionalFormatting sqref="D4:D16 D18:D20">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>(D4="-")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
+  <conditionalFormatting sqref="D19:D20">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>(D19="-")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>(D17="-")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I7">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>(C18="-")</formula>
+      <formula>(I4="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D20 I4:I7">
       <formula1>"ok,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="2840" windowWidth="33280" windowHeight="19260" tabRatio="500"/>
+    <workbookView xWindow="10840" yWindow="2020" windowWidth="33280" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Fit age distrib conditional household size</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Coarsing issue with small population</t>
   </si>
   <si>
-    <t>public transport</t>
+    <t>check-all-fits.R</t>
   </si>
 </sst>
 </file>
@@ -232,8 +232,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -289,7 +291,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -308,6 +310,7 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -326,19 +329,10 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -739,7 +733,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -855,11 +849,9 @@
         <v>29</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="6" t="s">
@@ -872,6 +864,13 @@
         <v>13</v>
       </c>
       <c r="E8" s="7"/>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="6" t="s">
@@ -1011,27 +1010,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D16 D18:D20">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>(D4="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>(D19="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>(D17="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I7">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>(I4="-")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>(I8="-")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D20 I4:I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D20 I4:I8">
       <formula1>"ok,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="2020" windowWidth="33280" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="11500" yWindow="680" windowWidth="33280" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Fit age distrib conditional household size</t>
   </si>
@@ -108,13 +108,28 @@
     <t>hosp &amp; death</t>
   </si>
   <si>
-    <t>SP size dsitrib</t>
-  </si>
-  <si>
-    <t>Coarsing issue with small population</t>
-  </si>
-  <si>
     <t>check-all-fits.R</t>
+  </si>
+  <si>
+    <t>go-R0</t>
+  </si>
+  <si>
+    <t>go-check-all-fits-data</t>
+  </si>
+  <si>
+    <t>SP size distrib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fit proportions output in "plot_pop.pdf" on desired values ;Coarsing issue with small population </t>
+  </si>
+  <si>
+    <t>mult_proba_sympotmatic</t>
+  </si>
+  <si>
+    <t>vax_imm_hum_incr</t>
+  </si>
+  <si>
+    <t>see other table</t>
   </si>
 </sst>
 </file>
@@ -232,8 +247,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -291,7 +308,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -311,6 +328,7 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -330,29 +348,10 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -733,7 +732,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -794,7 +793,9 @@
       <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="6" t="s">
@@ -813,7 +814,9 @@
       <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="6"/>
@@ -831,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -846,12 +849,14 @@
       </c>
       <c r="E7" s="7"/>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="6" t="s">
@@ -865,12 +870,14 @@
       </c>
       <c r="E8" s="7"/>
       <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="6" t="s">
@@ -882,7 +889,9 @@
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="6" t="s">
@@ -918,7 +927,9 @@
       <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="6"/>
@@ -950,7 +961,9 @@
       <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="6" t="s">
@@ -962,7 +975,9 @@
       <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="6" t="s">
@@ -974,7 +989,9 @@
       <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
@@ -1010,27 +1027,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D16 D18:D20">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>(D4="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>(D19="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>(D17="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I7">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>(I4="-")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>(I8="-")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="680" windowWidth="33280" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="18840" yWindow="1440" windowWidth="28680" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -111,18 +111,12 @@
     <t>check-all-fits.R</t>
   </si>
   <si>
-    <t>go-R0</t>
-  </si>
-  <si>
     <t>go-check-all-fits-data</t>
   </si>
   <si>
     <t>SP size distrib</t>
   </si>
   <si>
-    <t xml:space="preserve">Fit proportions output in "plot_pop.pdf" on desired values ;Coarsing issue with small population </t>
-  </si>
-  <si>
     <t>mult_proba_sympotmatic</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>see other table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fit proportions output in "plot_pop.pdf" on desired values ; Coarsing issue with small population &amp; low rates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">go-R0 ; cr=2.5 (cv=0.75) -&gt; R0~1.6 </t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +307,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -731,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -787,14 +796,14 @@
         <v>13</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>31</v>
+      <c r="J4" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -808,17 +817,17 @@
         <v>13</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="J5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="42">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -827,14 +836,14 @@
         <v>13</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>33</v>
+      <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -848,14 +857,14 @@
         <v>13</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>31</v>
+      <c r="J7" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -869,14 +878,14 @@
         <v>13</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>31</v>
+      <c r="I8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -890,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -928,7 +937,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -962,7 +971,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -976,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -990,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:5">

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="1440" windowWidth="28680" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="20240" yWindow="1540" windowWidth="28680" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -120,16 +120,17 @@
     <t>mult_proba_sympotmatic</t>
   </si>
   <si>
-    <t>vax_imm_hum_incr</t>
-  </si>
-  <si>
     <t>see other table</t>
   </si>
   <si>
-    <t xml:space="preserve">Fit proportions output in "plot_pop.pdf" on desired values ; Coarsing issue with small population &amp; low rates </t>
-  </si>
-  <si>
     <t xml:space="preserve">go-R0 ; cr=2.5 (cv=0.75) -&gt; R0~1.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interv_efficacy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fit "prob_hosp" adnd "proba_death_mult" on proportions output in "plot_pop.pdf" on desired values ; 
+Coarsing issue with small population &amp; low rates </t>
   </si>
 </sst>
 </file>
@@ -741,7 +742,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -827,7 +828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="42">
+    <row r="6" spans="2:10" ht="56">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -843,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -899,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -937,7 +938,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -971,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -999,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:5">

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="1540" windowWidth="28680" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="880" windowWidth="28540" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -983,7 +983,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>32</v>
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>35</v>

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="880" windowWidth="28540" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="13060" yWindow="1340" windowWidth="28540" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,8 @@
     <t xml:space="preserve">interv_efficacy </t>
   </si>
   <si>
-    <t xml:space="preserve">Fit "prob_hosp" adnd "proba_death_mult" on proportions output in "plot_pop.pdf" on desired values ; 
+    <t xml:space="preserve">fit/fit-proba-hosp-death.R
+check "prob_hosp" adnd "proba_death_mult" on proportions output in "plot_pop.pdf" on desired values ; 
 Coarsing issue with small population &amp; low rates </t>
   </si>
 </sst>
@@ -742,7 +743,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -828,7 +829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="56">
+    <row r="6" spans="2:10" ht="84">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>4</v>

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="1340" windowWidth="28540" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="12040" yWindow="1720" windowWidth="28540" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/_checkllist.xlsx
+++ b/_checkllist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="1720" windowWidth="28540" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="11960" yWindow="5220" windowWidth="28540" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
